--- a/dados/os_miseraveis.xlsx
+++ b/dados/os_miseraveis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -10,8 +10,259 @@
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Myriel</t>
+  </si>
+  <si>
+    <t>Napoleon</t>
+  </si>
+  <si>
+    <t>Mlle.Baptistine</t>
+  </si>
+  <si>
+    <t>Mme.Magloire</t>
+  </si>
+  <si>
+    <t>CountessdeLo</t>
+  </si>
+  <si>
+    <t>Geborand</t>
+  </si>
+  <si>
+    <t>Champtercier</t>
+  </si>
+  <si>
+    <t>Cravatte</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>OldMan</t>
+  </si>
+  <si>
+    <t>Labarre</t>
+  </si>
+  <si>
+    <t>Valjean</t>
+  </si>
+  <si>
+    <t>Marguerite</t>
+  </si>
+  <si>
+    <t>Mme.deR</t>
+  </si>
+  <si>
+    <t>Isabeau</t>
+  </si>
+  <si>
+    <t>Gervais</t>
+  </si>
+  <si>
+    <t>Tholomyes</t>
+  </si>
+  <si>
+    <t>Listolier</t>
+  </si>
+  <si>
+    <t>Fameuil</t>
+  </si>
+  <si>
+    <t>Blacheville</t>
+  </si>
+  <si>
+    <t>Favourite</t>
+  </si>
+  <si>
+    <t>Dahlia</t>
+  </si>
+  <si>
+    <t>Zephine</t>
+  </si>
+  <si>
+    <t>Fantine</t>
+  </si>
+  <si>
+    <t>Mme.Thenardier</t>
+  </si>
+  <si>
+    <t>Thenardier</t>
+  </si>
+  <si>
+    <t>Cosette</t>
+  </si>
+  <si>
+    <t>Javert</t>
+  </si>
+  <si>
+    <t>Fauchelevent</t>
+  </si>
+  <si>
+    <t>Bamatabois</t>
+  </si>
+  <si>
+    <t>Perpetue</t>
+  </si>
+  <si>
+    <t>Simplice</t>
+  </si>
+  <si>
+    <t>Scaufflaire</t>
+  </si>
+  <si>
+    <t>Woman1</t>
+  </si>
+  <si>
+    <t>Judge</t>
+  </si>
+  <si>
+    <t>Champmathieu</t>
+  </si>
+  <si>
+    <t>Brevet</t>
+  </si>
+  <si>
+    <t>Chenildieu</t>
+  </si>
+  <si>
+    <t>Cochepaille</t>
+  </si>
+  <si>
+    <t>Pontmercy</t>
+  </si>
+  <si>
+    <t>Boulatruelle</t>
+  </si>
+  <si>
+    <t>Eponine</t>
+  </si>
+  <si>
+    <t>Anzelma</t>
+  </si>
+  <si>
+    <t>Woman2</t>
+  </si>
+  <si>
+    <t>MotherInnocent</t>
+  </si>
+  <si>
+    <t>Gribier</t>
+  </si>
+  <si>
+    <t>Jondrette</t>
+  </si>
+  <si>
+    <t>Mme.Burgon</t>
+  </si>
+  <si>
+    <t>Gavroche</t>
+  </si>
+  <si>
+    <t>Gillenormand</t>
+  </si>
+  <si>
+    <t>Magnon</t>
+  </si>
+  <si>
+    <t>Mlle.Gillenormand</t>
+  </si>
+  <si>
+    <t>Mme.Pontmercy</t>
+  </si>
+  <si>
+    <t>Mlle.Vaubois</t>
+  </si>
+  <si>
+    <t>Lt.Gillenormand</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>BaronessT</t>
+  </si>
+  <si>
+    <t>Mabeuf</t>
+  </si>
+  <si>
+    <t>Enjolras</t>
+  </si>
+  <si>
+    <t>Combeferre</t>
+  </si>
+  <si>
+    <t>Prouvaire</t>
+  </si>
+  <si>
+    <t>Feuilly</t>
+  </si>
+  <si>
+    <t>Courfeyrac</t>
+  </si>
+  <si>
+    <t>Bahorel</t>
+  </si>
+  <si>
+    <t>Bossuet</t>
+  </si>
+  <si>
+    <t>Joly</t>
+  </si>
+  <si>
+    <t>Grantaire</t>
+  </si>
+  <si>
+    <t>MotherPlutarch</t>
+  </si>
+  <si>
+    <t>Gueulemer</t>
+  </si>
+  <si>
+    <t>Babet</t>
+  </si>
+  <si>
+    <t>Claquesous</t>
+  </si>
+  <si>
+    <t>Montparnasse</t>
+  </si>
+  <si>
+    <t>Toussaint</t>
+  </si>
+  <si>
+    <t>Child1</t>
+  </si>
+  <si>
+    <t>Child2</t>
+  </si>
+  <si>
+    <t>Brujon</t>
+  </si>
+  <si>
+    <t>Mme.Hucheloup</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -108,7 +359,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -178,7 +429,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -357,784 +608,629 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Myriel</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Napoleon</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mlle.Baptistine</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mme.Magloire</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CountessdeLo</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Geborand</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Champtercier</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cravatte</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>OldMan</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Labarre</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Valjean</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Marguerite</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mme.deR</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Isabeau</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Gervais</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Tholomyes</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Listolier</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Fameuil</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Blacheville</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Favourite</t>
-        </is>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Dahlia</t>
-        </is>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Zephine</t>
-        </is>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Fantine</t>
-        </is>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mme.Thenardier</t>
-        </is>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Thenardier</t>
-        </is>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Cosette</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Javert</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Fauchelevent</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Bamatabois</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Perpetue</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Simplice</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Scaufflaire</t>
-        </is>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Woman1</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Judge</t>
-        </is>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Champmathieu</t>
-        </is>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Brevet</t>
-        </is>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Chenildieu</t>
-        </is>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cochepaille</t>
-        </is>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Pontmercy</t>
-        </is>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Boulatruelle</t>
-        </is>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Eponine</t>
-        </is>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Anzelma</t>
-        </is>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Woman2</t>
-        </is>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MotherInnocent</t>
-        </is>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Gribier</t>
-        </is>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Jondrette</t>
-        </is>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
         <v>7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Mme.Burgon</t>
-        </is>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Gavroche</t>
-        </is>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Gillenormand</t>
-        </is>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Magnon</t>
-        </is>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Mlle.Gillenormand</t>
-        </is>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Mme.Pontmercy</t>
-        </is>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Mlle.Vaubois</t>
-        </is>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Lt.Gillenormand</t>
-        </is>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Marius</t>
-        </is>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>BaronessT</t>
-        </is>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Mabeuf</t>
-        </is>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
         <v>8</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Enjolras</t>
-        </is>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
         <v>8</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Combeferre</t>
-        </is>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
         <v>8</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Prouvaire</t>
-        </is>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
         <v>8</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Feuilly</t>
-        </is>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
         <v>8</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Courfeyrac</t>
-        </is>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
         <v>8</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Bahorel</t>
-        </is>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
         <v>8</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Bossuet</t>
-        </is>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Joly</t>
-        </is>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
         <v>8</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Grantaire</t>
-        </is>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
         <v>8</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MotherPlutarch</t>
-        </is>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Gueulemer</t>
-        </is>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Babet</t>
-        </is>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Claquesous</t>
-        </is>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Montparnasse</t>
-        </is>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Toussaint</t>
-        </is>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Child1</t>
-        </is>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Child2</t>
-        </is>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Brujon</t>
-        </is>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Mme.Hucheloup</t>
-        </is>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -1149,28 +1245,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1181,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1192,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1203,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1214,7 +1304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1225,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1236,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1247,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1258,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1269,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1280,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1291,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1302,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1313,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1324,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1335,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1346,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1357,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1368,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1379,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1390,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1401,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1412,7 +1502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1423,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -1434,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1445,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1456,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -1467,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1478,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1489,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1500,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>21</v>
       </c>
@@ -1511,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1522,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>21</v>
       </c>
@@ -1533,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>22</v>
       </c>
@@ -1544,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>22</v>
       </c>
@@ -1555,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>22</v>
       </c>
@@ -1566,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>22</v>
       </c>
@@ -1577,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>22</v>
       </c>
@@ -1588,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>22</v>
       </c>
@@ -1599,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>23</v>
       </c>
@@ -1610,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>23</v>
       </c>
@@ -1621,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>23</v>
       </c>
@@ -1632,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>23</v>
       </c>
@@ -1643,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>23</v>
       </c>
@@ -1654,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>23</v>
       </c>
@@ -1665,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>23</v>
       </c>
@@ -1676,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>23</v>
       </c>
@@ -1687,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>23</v>
       </c>
@@ -1698,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>24</v>
       </c>
@@ -1709,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>24</v>
       </c>
@@ -1720,7 +1810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>25</v>
       </c>
@@ -1731,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>25</v>
       </c>
@@ -1742,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>25</v>
       </c>
@@ -1753,7 +1843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>26</v>
       </c>
@@ -1764,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>26</v>
       </c>
@@ -1775,7 +1865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>26</v>
       </c>
@@ -1786,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>26</v>
       </c>
@@ -1797,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>27</v>
       </c>
@@ -1808,7 +1898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>27</v>
       </c>
@@ -1819,7 +1909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>27</v>
       </c>
@@ -1830,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>27</v>
       </c>
@@ -1841,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>27</v>
       </c>
@@ -1852,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>28</v>
       </c>
@@ -1863,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>28</v>
       </c>
@@ -1874,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>29</v>
       </c>
@@ -1885,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>29</v>
       </c>
@@ -1896,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>29</v>
       </c>
@@ -1907,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>30</v>
       </c>
@@ -1918,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>31</v>
       </c>
@@ -1929,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>31</v>
       </c>
@@ -1940,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>31</v>
       </c>
@@ -1951,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>31</v>
       </c>
@@ -1962,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>32</v>
       </c>
@@ -1973,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>33</v>
       </c>
@@ -1984,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>33</v>
       </c>
@@ -1995,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>34</v>
       </c>
@@ -2006,7 +2096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>34</v>
       </c>
@@ -2017,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>35</v>
       </c>
@@ -2028,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>35</v>
       </c>
@@ -2039,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>35</v>
       </c>
@@ -2050,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>36</v>
       </c>
@@ -2061,7 +2151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>36</v>
       </c>
@@ -2072,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>36</v>
       </c>
@@ -2083,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>36</v>
       </c>
@@ -2094,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>37</v>
       </c>
@@ -2105,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>37</v>
       </c>
@@ -2116,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>37</v>
       </c>
@@ -2127,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>37</v>
       </c>
@@ -2138,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>37</v>
       </c>
@@ -2149,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>38</v>
       </c>
@@ -2160,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>38</v>
       </c>
@@ -2171,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>38</v>
       </c>
@@ -2182,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>38</v>
       </c>
@@ -2193,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>38</v>
       </c>
@@ -2204,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>38</v>
       </c>
@@ -2215,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>39</v>
       </c>
@@ -2226,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>40</v>
       </c>
@@ -2237,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>41</v>
       </c>
@@ -2248,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>41</v>
       </c>
@@ -2259,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>42</v>
       </c>
@@ -2270,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>42</v>
       </c>
@@ -2281,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>42</v>
       </c>
@@ -2292,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>43</v>
       </c>
@@ -2303,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>43</v>
       </c>
@@ -2314,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>43</v>
       </c>
@@ -2325,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>44</v>
       </c>
@@ -2336,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>44</v>
       </c>
@@ -2347,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>45</v>
       </c>
@@ -2358,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>47</v>
       </c>
@@ -2369,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>48</v>
       </c>
@@ -2380,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>48</v>
       </c>
@@ -2391,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>48</v>
       </c>
@@ -2402,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>48</v>
       </c>
@@ -2413,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>49</v>
       </c>
@@ -2424,7 +2514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>49</v>
       </c>
@@ -2435,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>50</v>
       </c>
@@ -2446,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>50</v>
       </c>
@@ -2457,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>51</v>
       </c>
@@ -2468,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>51</v>
       </c>
@@ -2479,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -2490,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -2501,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>52</v>
       </c>
@@ -2512,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>53</v>
       </c>
@@ -2523,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>54</v>
       </c>
@@ -2534,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>54</v>
       </c>
@@ -2545,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>54</v>
       </c>
@@ -2556,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>55</v>
       </c>
@@ -2567,7 +2657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>55</v>
       </c>
@@ -2578,7 +2668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>55</v>
       </c>
@@ -2589,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>55</v>
       </c>
@@ -2600,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>55</v>
       </c>
@@ -2611,7 +2701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>55</v>
       </c>
@@ -2622,7 +2712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>55</v>
       </c>
@@ -2633,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>55</v>
       </c>
@@ -2644,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>55</v>
       </c>
@@ -2655,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>55</v>
       </c>
@@ -2666,7 +2756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>56</v>
       </c>
@@ -2677,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>56</v>
       </c>
@@ -2688,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>57</v>
       </c>
@@ -2699,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>57</v>
       </c>
@@ -2710,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>57</v>
       </c>
@@ -2721,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>58</v>
       </c>
@@ -2732,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>58</v>
       </c>
@@ -2743,7 +2833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>58</v>
       </c>
@@ -2754,7 +2844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>58</v>
       </c>
@@ -2765,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>58</v>
       </c>
@@ -2776,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>59</v>
       </c>
@@ -2787,7 +2877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>59</v>
       </c>
@@ -2798,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>59</v>
       </c>
@@ -2809,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>59</v>
       </c>
@@ -2820,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>60</v>
       </c>
@@ -2831,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>60</v>
       </c>
@@ -2842,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>60</v>
       </c>
@@ -2853,7 +2943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>61</v>
       </c>
@@ -2864,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>61</v>
       </c>
@@ -2875,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>61</v>
       </c>
@@ -2886,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>61</v>
       </c>
@@ -2897,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>61</v>
       </c>
@@ -2908,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>61</v>
       </c>
@@ -2919,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>62</v>
       </c>
@@ -2930,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>62</v>
       </c>
@@ -2941,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>62</v>
       </c>
@@ -2952,7 +3042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>62</v>
       </c>
@@ -2963,7 +3053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>62</v>
       </c>
@@ -2974,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>62</v>
       </c>
@@ -2985,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>62</v>
       </c>
@@ -2996,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>62</v>
       </c>
@@ -3007,7 +3097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>63</v>
       </c>
@@ -3018,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>63</v>
       </c>
@@ -3029,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>63</v>
       </c>
@@ -3040,7 +3130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>63</v>
       </c>
@@ -3051,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>63</v>
       </c>
@@ -3062,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>63</v>
       </c>
@@ -3073,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>63</v>
       </c>
@@ -3084,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>63</v>
       </c>
@@ -3095,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>64</v>
       </c>
@@ -3106,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>64</v>
       </c>
@@ -3117,7 +3207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>64</v>
       </c>
@@ -3128,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>64</v>
       </c>
@@ -3139,7 +3229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>64</v>
       </c>
@@ -3150,7 +3240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>64</v>
       </c>
@@ -3161,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>64</v>
       </c>
@@ -3172,7 +3262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>64</v>
       </c>
@@ -3183,7 +3273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>64</v>
       </c>
@@ -3194,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>64</v>
       </c>
@@ -3205,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>65</v>
       </c>
@@ -3216,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>65</v>
       </c>
@@ -3227,7 +3317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>65</v>
       </c>
@@ -3238,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>65</v>
       </c>
@@ -3249,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>65</v>
       </c>
@@ -3260,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>65</v>
       </c>
@@ -3271,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>65</v>
       </c>
@@ -3282,7 +3372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>65</v>
       </c>
@@ -3293,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>65</v>
       </c>
@@ -3304,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>65</v>
       </c>
@@ -3315,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>66</v>
       </c>
@@ -3326,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>66</v>
       </c>
@@ -3337,7 +3427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>66</v>
       </c>
@@ -3348,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>66</v>
       </c>
@@ -3359,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>66</v>
       </c>
@@ -3370,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>66</v>
       </c>
@@ -3381,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>66</v>
       </c>
@@ -3392,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>66</v>
       </c>
@@ -3403,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>66</v>
       </c>
@@ -3414,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>67</v>
       </c>
@@ -3425,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>68</v>
       </c>
@@ -3436,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>68</v>
       </c>
@@ -3447,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>68</v>
       </c>
@@ -3458,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>68</v>
       </c>
@@ -3469,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>68</v>
       </c>
@@ -3480,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>68</v>
       </c>
@@ -3491,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>69</v>
       </c>
@@ -3502,7 +3592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>69</v>
       </c>
@@ -3513,7 +3603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>69</v>
       </c>
@@ -3524,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>69</v>
       </c>
@@ -3535,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>69</v>
       </c>
@@ -3546,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>69</v>
       </c>
@@ -3557,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>69</v>
       </c>
@@ -3568,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>70</v>
       </c>
@@ -3579,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>70</v>
       </c>
@@ -3590,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>70</v>
       </c>
@@ -3601,7 +3691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>70</v>
       </c>
@@ -3612,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>70</v>
       </c>
@@ -3623,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>70</v>
       </c>
@@ -3634,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>70</v>
       </c>
@@ -3645,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>70</v>
       </c>
@@ -3656,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>71</v>
       </c>
@@ -3667,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>71</v>
       </c>
@@ -3678,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>71</v>
       </c>
@@ -3689,7 +3779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>71</v>
       </c>
@@ -3700,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>71</v>
       </c>
@@ -3711,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>71</v>
       </c>
@@ -3722,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>71</v>
       </c>
@@ -3733,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>71</v>
       </c>
@@ -3744,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>72</v>
       </c>
@@ -3755,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>72</v>
       </c>
@@ -3766,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>72</v>
       </c>
@@ -3777,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>73</v>
       </c>
@@ -3788,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>74</v>
       </c>
@@ -3799,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>74</v>
       </c>
@@ -3810,7 +3900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>75</v>
       </c>
@@ -3821,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>75</v>
       </c>
@@ -3832,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>75</v>
       </c>
@@ -3843,7 +3933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>75</v>
       </c>
@@ -3854,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>75</v>
       </c>
@@ -3865,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>75</v>
       </c>
@@ -3876,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>75</v>
       </c>
@@ -3887,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>76</v>
       </c>
@@ -3898,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>76</v>
       </c>
@@ -3909,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>76</v>
       </c>
@@ -3920,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>76</v>
       </c>
@@ -3931,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>76</v>
       </c>
@@ -3942,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>76</v>
       </c>
@@ -3953,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>76</v>
       </c>
